--- a/biology/Mycologie/Morchella_costata/Morchella_costata.xlsx
+++ b/biology/Mycologie/Morchella_costata/Morchella_costata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morille côtelée
 Morchella costata, la morille côtelée, est une espèce de champignons ascomycètes, excellents comestibles, de la famille des Morchellaceae (ordre des Pezizales).
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Chapeau oblong, de 14 à 17 cm de haut, ovoïde à conique presque pointu, obtus par la suite, côtes primaires rectilignes de la base au sommet, dessinant des alvéoles rectangulaires.
@@ -548,7 +562,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De mars à avril, en plaine avec une forte attirance pour les stations rudéralisées et anciennes places à feu.
 </t>
@@ -579,9 +595,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Morchella costata J.C.Schmidt &amp; Kunze, 1817[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Morchella costata J.C.Schmidt &amp; Kunze, 1817.
 </t>
         </is>
       </c>
